--- a/multi_ibex.xlsx
+++ b/multi_ibex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>instance name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>instance postfix</t>
   </si>
   <si>
+    <t>u</t>
+  </si>
+  <si>
     <t>instance start idx</t>
   </si>
   <si>
@@ -41,6 +44,12 @@
   </si>
   <si>
     <t>signal postfix</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>example test</t>
   </si>
 </sst>
 </file>
@@ -979,15 +988,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85925925925926" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85925925925926" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5037037037037" customWidth="true"/>
+    <col min="2" max="2" width="12.2814814814815" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1011,29 +1021,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
